--- a/df_list_20241128.xlsx
+++ b/df_list_20241128.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9981C-08A2-45B5-876C-7EB6054F483C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18789" windowHeight="7209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="LUFBnCMzwGQP5HN9X5W5UjO/mbyCPE4wGCVztjktNwo="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="321">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -976,65 +985,94 @@
   </si>
   <si>
     <t>전주시 건축위원회 심의기준 변경 공고 행정예고</t>
+  </si>
+  <si>
+    <t>수집일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1042,11 +1080,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1060,52 +1104,61 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1295,23 +1348,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="4" width="8.69140625" customWidth="1"/>
+    <col min="5" max="5" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.4609375" customWidth="1"/>
+    <col min="7" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1342,10 +1403,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45622</v>
+      </c>
+      <c r="F2" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1359,10 +1423,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>45624</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.6">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1376,10 +1443,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45623</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.6">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1393,10 +1463,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45622</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.6">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1410,10 +1483,13 @@
         <v>22</v>
       </c>
       <c r="E6" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45623</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.6">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1427,10 +1503,13 @@
         <v>26</v>
       </c>
       <c r="E7" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>45624</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.6">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1444,10 +1523,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45624</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.6">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1461,10 +1543,13 @@
         <v>31</v>
       </c>
       <c r="E9" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>45624</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.6">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1478,10 +1563,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>45623</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.6">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1495,10 +1583,13 @@
         <v>33</v>
       </c>
       <c r="E11" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>45623</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.6">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1512,10 +1603,13 @@
         <v>34</v>
       </c>
       <c r="E12" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>45622</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.6">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1529,10 +1623,13 @@
         <v>35</v>
       </c>
       <c r="E13" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>45622</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.6">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1546,10 +1643,13 @@
         <v>39</v>
       </c>
       <c r="E14" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>45623</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.6">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1563,10 +1663,13 @@
         <v>43</v>
       </c>
       <c r="E15" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45624</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.6">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1580,10 +1683,13 @@
         <v>44</v>
       </c>
       <c r="E16" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>45623</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.6">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1597,10 +1703,13 @@
         <v>45</v>
       </c>
       <c r="E17" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>45623</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.6">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1614,10 +1723,13 @@
         <v>46</v>
       </c>
       <c r="E18" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>45623</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.6">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1631,10 +1743,13 @@
         <v>47</v>
       </c>
       <c r="E19" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>45622</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.6">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1648,10 +1763,13 @@
         <v>48</v>
       </c>
       <c r="E20" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F20" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1665,10 +1783,13 @@
         <v>52</v>
       </c>
       <c r="E21" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F21" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1682,10 +1803,13 @@
         <v>56</v>
       </c>
       <c r="E22" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F22" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1699,10 +1823,13 @@
         <v>26</v>
       </c>
       <c r="E23" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F23" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1716,10 +1843,13 @@
         <v>62</v>
       </c>
       <c r="E24" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F24" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -1733,10 +1863,13 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F25" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -1750,10 +1883,13 @@
         <v>14</v>
       </c>
       <c r="E26" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F26" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -1767,10 +1903,13 @@
         <v>66</v>
       </c>
       <c r="E27" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F27" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -1784,10 +1923,13 @@
         <v>22</v>
       </c>
       <c r="E28" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F28" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
@@ -1801,10 +1943,13 @@
         <v>72</v>
       </c>
       <c r="E29" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F29" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
@@ -1818,10 +1963,13 @@
         <v>76</v>
       </c>
       <c r="E30" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F30" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -1835,10 +1983,13 @@
         <v>77</v>
       </c>
       <c r="E31" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F31" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -1852,10 +2003,13 @@
         <v>78</v>
       </c>
       <c r="E32" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F32" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -1869,10 +2023,13 @@
         <v>82</v>
       </c>
       <c r="E33" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F33" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>83</v>
       </c>
@@ -1886,10 +2043,13 @@
         <v>86</v>
       </c>
       <c r="E34" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F34" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>83</v>
       </c>
@@ -1903,10 +2063,13 @@
         <v>87</v>
       </c>
       <c r="E35" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F35" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -1920,10 +2083,13 @@
         <v>91</v>
       </c>
       <c r="E36" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F36" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -1937,10 +2103,13 @@
         <v>95</v>
       </c>
       <c r="E37" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F37" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>96</v>
       </c>
@@ -1954,10 +2123,13 @@
         <v>99</v>
       </c>
       <c r="E38" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F38" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
@@ -1971,10 +2143,13 @@
         <v>103</v>
       </c>
       <c r="E39" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F39" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
@@ -1988,10 +2163,13 @@
         <v>107</v>
       </c>
       <c r="E40" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F40" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -2005,10 +2183,13 @@
         <v>111</v>
       </c>
       <c r="E41" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F41" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -2022,10 +2203,13 @@
         <v>115</v>
       </c>
       <c r="E42" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F42" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
@@ -2039,10 +2223,13 @@
         <v>116</v>
       </c>
       <c r="E43" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F43" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>112</v>
       </c>
@@ -2056,10 +2243,13 @@
         <v>117</v>
       </c>
       <c r="E44" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F44" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
@@ -2073,10 +2263,13 @@
         <v>118</v>
       </c>
       <c r="E45" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F45" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>119</v>
       </c>
@@ -2090,10 +2283,13 @@
         <v>122</v>
       </c>
       <c r="E46" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F46" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>123</v>
       </c>
@@ -2107,10 +2303,13 @@
         <v>126</v>
       </c>
       <c r="E47" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F47" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
@@ -2124,10 +2323,13 @@
         <v>130</v>
       </c>
       <c r="E48" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F48" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
@@ -2141,10 +2343,13 @@
         <v>134</v>
       </c>
       <c r="E49" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F49" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
@@ -2158,10 +2363,13 @@
         <v>138</v>
       </c>
       <c r="E50" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F50" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>139</v>
       </c>
@@ -2175,10 +2383,13 @@
         <v>142</v>
       </c>
       <c r="E51" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F51" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
@@ -2192,10 +2403,13 @@
         <v>146</v>
       </c>
       <c r="E52" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F52" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
@@ -2209,10 +2423,13 @@
         <v>150</v>
       </c>
       <c r="E53" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F53" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>151</v>
       </c>
@@ -2226,10 +2443,13 @@
         <v>154</v>
       </c>
       <c r="E54" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F54" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -2243,10 +2463,13 @@
         <v>158</v>
       </c>
       <c r="E55" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F55" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>155</v>
       </c>
@@ -2260,10 +2483,13 @@
         <v>160</v>
       </c>
       <c r="E56" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F56" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>155</v>
       </c>
@@ -2277,10 +2503,13 @@
         <v>162</v>
       </c>
       <c r="E57" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F57" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>163</v>
       </c>
@@ -2294,10 +2523,13 @@
         <v>166</v>
       </c>
       <c r="E58" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F58" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>167</v>
       </c>
@@ -2311,10 +2543,13 @@
         <v>170</v>
       </c>
       <c r="E59" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F59" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>167</v>
       </c>
@@ -2328,10 +2563,13 @@
         <v>162</v>
       </c>
       <c r="E60" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F60" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>167</v>
       </c>
@@ -2345,10 +2583,13 @@
         <v>171</v>
       </c>
       <c r="E61" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F61" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>167</v>
       </c>
@@ -2362,10 +2603,13 @@
         <v>172</v>
       </c>
       <c r="E62" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F62" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>173</v>
       </c>
@@ -2379,10 +2623,13 @@
         <v>176</v>
       </c>
       <c r="E63" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F63" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>177</v>
       </c>
@@ -2396,10 +2643,13 @@
         <v>180</v>
       </c>
       <c r="E64" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F64" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>177</v>
       </c>
@@ -2413,10 +2663,13 @@
         <v>182</v>
       </c>
       <c r="E65" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F65" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>183</v>
       </c>
@@ -2430,10 +2683,13 @@
         <v>186</v>
       </c>
       <c r="E66" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F66" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>187</v>
       </c>
@@ -2447,10 +2703,13 @@
         <v>190</v>
       </c>
       <c r="E67" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F67" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>187</v>
       </c>
@@ -2464,10 +2723,13 @@
         <v>191</v>
       </c>
       <c r="E68" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F68" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>192</v>
       </c>
@@ -2481,10 +2743,13 @@
         <v>195</v>
       </c>
       <c r="E69" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F69" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>196</v>
       </c>
@@ -2498,10 +2763,13 @@
         <v>199</v>
       </c>
       <c r="E70" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F70" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
@@ -2515,10 +2783,13 @@
         <v>203</v>
       </c>
       <c r="E71" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F71" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>204</v>
       </c>
@@ -2532,10 +2803,13 @@
         <v>207</v>
       </c>
       <c r="E72" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F72" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>208</v>
       </c>
@@ -2549,10 +2823,13 @@
         <v>211</v>
       </c>
       <c r="E73" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F73" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>212</v>
       </c>
@@ -2566,10 +2843,13 @@
         <v>215</v>
       </c>
       <c r="E74" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F74" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>216</v>
       </c>
@@ -2583,10 +2863,13 @@
         <v>219</v>
       </c>
       <c r="E75" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F75" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>220</v>
       </c>
@@ -2600,10 +2883,13 @@
         <v>223</v>
       </c>
       <c r="E76" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F76" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>224</v>
       </c>
@@ -2617,10 +2903,13 @@
         <v>227</v>
       </c>
       <c r="E77" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F77" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>228</v>
       </c>
@@ -2634,10 +2923,13 @@
         <v>231</v>
       </c>
       <c r="E78" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F78" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>232</v>
       </c>
@@ -2651,10 +2943,13 @@
         <v>235</v>
       </c>
       <c r="E79" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F79" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>236</v>
       </c>
@@ -2668,10 +2963,13 @@
         <v>239</v>
       </c>
       <c r="E80" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F80" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>240</v>
       </c>
@@ -2685,10 +2983,13 @@
         <v>243</v>
       </c>
       <c r="E81" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F81" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>240</v>
       </c>
@@ -2702,10 +3003,13 @@
         <v>244</v>
       </c>
       <c r="E82" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F82" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>245</v>
       </c>
@@ -2719,10 +3023,13 @@
         <v>248</v>
       </c>
       <c r="E83" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F83" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>249</v>
       </c>
@@ -2736,10 +3043,13 @@
         <v>252</v>
       </c>
       <c r="E84" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F84" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>249</v>
       </c>
@@ -2753,10 +3063,13 @@
         <v>254</v>
       </c>
       <c r="E85" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F85" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>255</v>
       </c>
@@ -2770,10 +3083,13 @@
         <v>258</v>
       </c>
       <c r="E86" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F86" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>255</v>
       </c>
@@ -2787,10 +3103,13 @@
         <v>259</v>
       </c>
       <c r="E87" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F87" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>255</v>
       </c>
@@ -2804,10 +3123,13 @@
         <v>261</v>
       </c>
       <c r="E88" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F88" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>255</v>
       </c>
@@ -2821,10 +3143,13 @@
         <v>262</v>
       </c>
       <c r="E89" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F89" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>263</v>
       </c>
@@ -2838,10 +3163,13 @@
         <v>266</v>
       </c>
       <c r="E90" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F90" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>267</v>
       </c>
@@ -2855,10 +3183,13 @@
         <v>270</v>
       </c>
       <c r="E91" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F91" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>271</v>
       </c>
@@ -2872,10 +3203,13 @@
         <v>274</v>
       </c>
       <c r="E92" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F92" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>271</v>
       </c>
@@ -2889,10 +3223,13 @@
         <v>275</v>
       </c>
       <c r="E93" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F93" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>276</v>
       </c>
@@ -2906,10 +3243,13 @@
         <v>279</v>
       </c>
       <c r="E94" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F94" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>276</v>
       </c>
@@ -2923,10 +3263,13 @@
         <v>280</v>
       </c>
       <c r="E95" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F95" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>139</v>
       </c>
@@ -2940,10 +3283,13 @@
         <v>142</v>
       </c>
       <c r="E96" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F96" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>282</v>
       </c>
@@ -2957,10 +3303,13 @@
         <v>285</v>
       </c>
       <c r="E97" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F97" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>282</v>
       </c>
@@ -2974,10 +3323,13 @@
         <v>286</v>
       </c>
       <c r="E98" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F98" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>282</v>
       </c>
@@ -2991,10 +3343,13 @@
         <v>288</v>
       </c>
       <c r="E99" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F99" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>289</v>
       </c>
@@ -3008,10 +3363,13 @@
         <v>292</v>
       </c>
       <c r="E100" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F100" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>293</v>
       </c>
@@ -3025,10 +3383,13 @@
         <v>296</v>
       </c>
       <c r="E101" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F101" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>297</v>
       </c>
@@ -3042,10 +3403,13 @@
         <v>300</v>
       </c>
       <c r="E102" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F102" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>236</v>
       </c>
@@ -3059,10 +3423,13 @@
         <v>301</v>
       </c>
       <c r="E103" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F103" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>302</v>
       </c>
@@ -3076,10 +3443,13 @@
         <v>305</v>
       </c>
       <c r="E104" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F104" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>302</v>
       </c>
@@ -3093,10 +3463,13 @@
         <v>306</v>
       </c>
       <c r="E105" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F105" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>307</v>
       </c>
@@ -3110,10 +3483,13 @@
         <v>310</v>
       </c>
       <c r="E106" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F106" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>311</v>
       </c>
@@ -3127,10 +3503,13 @@
         <v>314</v>
       </c>
       <c r="E107" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F107" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>315</v>
       </c>
@@ -3144,10 +3523,13 @@
         <v>318</v>
       </c>
       <c r="E108" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F108" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>315</v>
       </c>
@@ -3161,12 +3543,15 @@
         <v>319</v>
       </c>
       <c r="E109" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+        <v>45624</v>
+      </c>
+      <c r="F109" s="11">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -4056,27 +4441,26 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C94"/>
-    <hyperlink r:id="rId2" ref="C95"/>
-    <hyperlink r:id="rId3" ref="C96"/>
-    <hyperlink r:id="rId4" ref="C97"/>
-    <hyperlink r:id="rId5" ref="C98"/>
-    <hyperlink r:id="rId6" ref="C99"/>
-    <hyperlink r:id="rId7" ref="C100"/>
-    <hyperlink r:id="rId8" ref="C101"/>
-    <hyperlink r:id="rId9" ref="C102"/>
-    <hyperlink r:id="rId10" ref="C103"/>
-    <hyperlink r:id="rId11" ref="C104"/>
-    <hyperlink r:id="rId12" ref="C105"/>
-    <hyperlink r:id="rId13" ref="C106"/>
-    <hyperlink r:id="rId14" ref="C107"/>
-    <hyperlink r:id="rId15" ref="C108"/>
-    <hyperlink r:id="rId16" ref="C109"/>
+    <hyperlink ref="C94" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C95" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C96" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C97" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C98" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C99" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C100" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C101" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C102" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C103" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C104" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C105" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C106" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C107" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C108" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C109" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId17"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>